--- a/03.Clasificacion/Other_cycles/Other_cycles_f/NEDC ECE.xlsx
+++ b/03.Clasificacion/Other_cycles/Other_cycles_f/NEDC ECE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K401"/>
+  <dimension ref="A1:M337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,16 @@
           <t>Der_Acel_cumul</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>delta_tiempo</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>distance_m</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -526,6 +536,12 @@
       <c r="K2" t="n">
         <v>0</v>
       </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -563,6 +579,12 @@
       <c r="K3" t="n">
         <v>0</v>
       </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -600,6 +622,12 @@
       <c r="K4" t="n">
         <v>0</v>
       </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -637,6 +665,12 @@
       <c r="K5" t="n">
         <v>0</v>
       </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -674,6 +708,12 @@
       <c r="K6" t="n">
         <v>0</v>
       </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -711,6 +751,12 @@
       <c r="K7" t="n">
         <v>0</v>
       </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -748,6 +794,12 @@
       <c r="K8" t="n">
         <v>0</v>
       </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -785,6 +837,12 @@
       <c r="K9" t="n">
         <v>0</v>
       </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -822,6 +880,12 @@
       <c r="K10" t="n">
         <v>0</v>
       </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -859,6 +923,12 @@
       <c r="K11" t="n">
         <v>0</v>
       </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -896,6 +966,12 @@
       <c r="K12" t="n">
         <v>0</v>
       </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -933,6 +1009,12 @@
       <c r="K13" t="n">
         <v>0</v>
       </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -970,6 +1052,12 @@
       <c r="K14" t="n">
         <v>0</v>
       </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1007,6 +1095,12 @@
       <c r="K15" t="n">
         <v>0</v>
       </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1044,6 +1138,12 @@
       <c r="K16" t="n">
         <v>0</v>
       </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1081,6 +1181,12 @@
       <c r="K17" t="n">
         <v>0</v>
       </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1118,6 +1224,12 @@
       <c r="K18" t="n">
         <v>0</v>
       </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1155,6 +1267,12 @@
       <c r="K19" t="n">
         <v>0</v>
       </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1192,6 +1310,12 @@
       <c r="K20" t="n">
         <v>0.06944444444444443</v>
       </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1229,6 +1353,12 @@
       <c r="K21" t="n">
         <v>0.5555555555555556</v>
       </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1266,6 +1396,12 @@
       <c r="K22" t="n">
         <v>1.041666666666667</v>
       </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.0008333333333333333</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1303,6 +1439,12 @@
       <c r="K23" t="n">
         <v>1.111111111111111</v>
       </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.0025</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1340,6 +1482,12 @@
       <c r="K24" t="n">
         <v>1.111111111111111</v>
       </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1377,6 +1525,12 @@
       <c r="K25" t="n">
         <v>1.180555555555556</v>
       </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.008333333333333331</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1414,6 +1568,12 @@
       <c r="K26" t="n">
         <v>1.666666666666667</v>
       </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.0125</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1451,6 +1611,12 @@
       <c r="K27" t="n">
         <v>2.204218106995885</v>
       </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.01666666666666667</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1488,6 +1654,12 @@
       <c r="K28" t="n">
         <v>2.633744855967078</v>
       </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.02083333333333334</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1525,6 +1697,12 @@
       <c r="K29" t="n">
         <v>2.993827160493827</v>
       </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.02561728395061728</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1562,6 +1740,12 @@
       <c r="K30" t="n">
         <v>3.045267489711934</v>
       </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.03101851851851852</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1599,6 +1783,12 @@
       <c r="K31" t="n">
         <v>3.045267489711935</v>
       </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.03703703703703703</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1636,6 +1826,12 @@
       <c r="K32" t="n">
         <v>3.045267489711935</v>
       </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.04367283950617284</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1673,6 +1869,12 @@
       <c r="K33" t="n">
         <v>3.045267489711936</v>
       </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.05092592592592593</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1710,6 +1912,12 @@
       <c r="K34" t="n">
         <v>3.045267489711937</v>
       </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.0587962962962963</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1747,6 +1955,12 @@
       <c r="K35" t="n">
         <v>3.045267489711938</v>
       </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.06728395061728397</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1784,6 +1998,12 @@
       <c r="K36" t="n">
         <v>3.096707818930043</v>
       </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0763888888888889</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1821,6 +2041,12 @@
       <c r="K37" t="n">
         <v>3.456790123456791</v>
       </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.08611111111111111</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1858,6 +2084,12 @@
       <c r="K38" t="n">
         <v>3.860275205761317</v>
       </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.09583333333333334</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1895,6 +2127,12 @@
       <c r="K39" t="n">
         <v>4.215534979423869</v>
       </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.1055555555555556</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1932,6 +2170,12 @@
       <c r="K40" t="n">
         <v>4.519354423868313</v>
       </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.1157986111111111</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1969,6 +2213,12 @@
       <c r="K41" t="n">
         <v>4.562757201646091</v>
       </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.1265625</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2006,6 +2256,12 @@
       <c r="K42" t="n">
         <v>4.562757201646091</v>
       </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.1378472222222222</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2043,6 +2299,12 @@
       <c r="K43" t="n">
         <v>4.562757201646091</v>
       </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.1496527777777778</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2080,6 +2342,12 @@
       <c r="K44" t="n">
         <v>4.562757201646092</v>
       </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.1619791666666666</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2117,6 +2385,12 @@
       <c r="K45" t="n">
         <v>4.562757201646093</v>
       </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.1748263888888889</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2154,6 +2428,12 @@
       <c r="K46" t="n">
         <v>4.606159979423872</v>
       </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.1881944444444444</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2191,6 +2471,12 @@
       <c r="K47" t="n">
         <v>4.909979423868316</v>
       </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.2020833333333333</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2228,6 +2514,12 @@
       <c r="K48" t="n">
         <v>5.249411403925297</v>
       </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.2159722222222222</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2265,6 +2557,12 @@
       <c r="K49" t="n">
         <v>5.542101930990825</v>
       </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.2298611111111111</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2302,6 +2600,12 @@
       <c r="K50" t="n">
         <v>5.791389680278574</v>
       </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.2441773504273504</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2339,6 +2643,12 @@
       <c r="K51" t="n">
         <v>5.827002215891111</v>
       </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.2589209401709401</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2376,6 +2686,12 @@
       <c r="K52" t="n">
         <v>5.827002215891111</v>
       </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.2740918803418803</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2413,6 +2729,12 @@
       <c r="K53" t="n">
         <v>5.827002215891112</v>
       </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.2896901709401709</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2450,6 +2772,12 @@
       <c r="K54" t="n">
         <v>5.827002215891113</v>
       </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.3057158119658119</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2487,6 +2815,12 @@
       <c r="K55" t="n">
         <v>5.827002215891113</v>
       </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.3221688034188034</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2524,6 +2858,12 @@
       <c r="K56" t="n">
         <v>5.827002215891116</v>
       </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.3390491452991453</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2561,6 +2901,12 @@
       <c r="K57" t="n">
         <v>5.827002215891119</v>
       </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.3563568376068376</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2598,6 +2944,12 @@
       <c r="K58" t="n">
         <v>5.82700221589112</v>
       </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.3740918803418803</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2635,6 +2987,12 @@
       <c r="K59" t="n">
         <v>5.827002215891123</v>
       </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.3922542735042735</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2672,6 +3030,12 @@
       <c r="K60" t="n">
         <v>5.827002215891125</v>
       </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.4108440170940171</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2709,6 +3073,12 @@
       <c r="K61" t="n">
         <v>5.86261475150366</v>
       </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.4298611111111111</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2746,6 +3116,12 @@
       <c r="K62" t="n">
         <v>6.111902500791411</v>
       </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.4493055555555556</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2783,6 +3159,12 @@
       <c r="K63" t="n">
         <v>6.361190250079159</v>
       </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.46875</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2820,6 +3202,12 @@
       <c r="K64" t="n">
         <v>6.396802785691694</v>
       </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.4881944444444444</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2857,6 +3245,12 @@
       <c r="K65" t="n">
         <v>6.396802785691694</v>
       </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.5076388888888889</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2894,6 +3288,12 @@
       <c r="K66" t="n">
         <v>6.396802785691694</v>
       </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.5270833333333333</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2931,6 +3331,12 @@
       <c r="K67" t="n">
         <v>6.396802785691694</v>
       </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.5465277777777778</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2968,6 +3374,12 @@
       <c r="K68" t="n">
         <v>6.396802785691694</v>
       </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.5659722222222223</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -3005,6 +3417,12 @@
       <c r="K69" t="n">
         <v>6.396802785691694</v>
       </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.5854166666666667</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -3042,6 +3460,12 @@
       <c r="K70" t="n">
         <v>6.396802785691694</v>
       </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.6048611111111112</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -3079,6 +3503,12 @@
       <c r="K71" t="n">
         <v>6.396802785691694</v>
       </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.6243055555555557</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -3116,6 +3546,12 @@
       <c r="K72" t="n">
         <v>6.396802785691694</v>
       </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.6437500000000002</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -3153,6 +3589,12 @@
       <c r="K73" t="n">
         <v>6.396802785691694</v>
       </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.6631944444444445</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -3190,6 +3632,12 @@
       <c r="K74" t="n">
         <v>6.396802785691694</v>
       </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.682638888888889</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -3227,6 +3675,12 @@
       <c r="K75" t="n">
         <v>6.396802785691694</v>
       </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.7020833333333335</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -3264,6 +3718,12 @@
       <c r="K76" t="n">
         <v>6.396802785691694</v>
       </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.721527777777778</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -3301,6 +3761,12 @@
       <c r="K77" t="n">
         <v>6.396802785691694</v>
       </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.7409722222222224</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -3338,6 +3804,12 @@
       <c r="K78" t="n">
         <v>6.396802785691694</v>
       </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.7604166666666669</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -3375,6 +3847,12 @@
       <c r="K79" t="n">
         <v>6.396802785691694</v>
       </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.7798611111111113</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -3412,6 +3890,12 @@
       <c r="K80" t="n">
         <v>6.396802785691694</v>
       </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.7993055555555558</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -3449,6 +3933,12 @@
       <c r="K81" t="n">
         <v>6.396802785691694</v>
       </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.8187500000000002</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -3486,6 +3976,12 @@
       <c r="K82" t="n">
         <v>6.396802785691694</v>
       </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.8381944444444447</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -3523,6 +4019,12 @@
       <c r="K83" t="n">
         <v>6.396802785691694</v>
       </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.8576388888888892</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -3560,6 +4062,12 @@
       <c r="K84" t="n">
         <v>6.396802785691694</v>
       </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.8770833333333335</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -3597,6 +4105,12 @@
       <c r="K85" t="n">
         <v>6.396802785691694</v>
       </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.896527777777778</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -3634,6 +4148,12 @@
       <c r="K86" t="n">
         <v>6.396802785691694</v>
       </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.9159722222222225</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -3671,6 +4191,12 @@
       <c r="K87" t="n">
         <v>6.396802785691694</v>
       </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.935416666666667</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -3708,6 +4234,12 @@
       <c r="K88" t="n">
         <v>6.396802785691694</v>
       </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.9548611111111114</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -3745,6 +4277,12 @@
       <c r="K89" t="n">
         <v>6.396802785691694</v>
       </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.9743055555555559</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -3782,6 +4320,12 @@
       <c r="K90" t="n">
         <v>6.396802785691694</v>
       </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.9937500000000004</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -3819,6 +4363,12 @@
       <c r="K91" t="n">
         <v>6.396802785691694</v>
       </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1.013194444444445</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -3856,6 +4406,12 @@
       <c r="K92" t="n">
         <v>6.396802785691694</v>
       </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1.032638888888889</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -3893,6 +4449,12 @@
       <c r="K93" t="n">
         <v>6.396802785691694</v>
       </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="n">
+        <v>1.052083333333333</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -3930,6 +4492,12 @@
       <c r="K94" t="n">
         <v>6.396802785691694</v>
       </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1.071527777777778</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -3967,6 +4535,12 @@
       <c r="K95" t="n">
         <v>6.396802785691694</v>
       </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1.090972222222222</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -4004,6 +4578,12 @@
       <c r="K96" t="n">
         <v>6.396802785691694</v>
       </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1.110416666666667</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -4041,6 +4621,12 @@
       <c r="K97" t="n">
         <v>6.396802785691694</v>
       </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1.129861111111111</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -4078,6 +4664,12 @@
       <c r="K98" t="n">
         <v>6.396802785691694</v>
       </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1.149305555555555</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -4115,6 +4707,12 @@
       <c r="K99" t="n">
         <v>6.396802785691694</v>
       </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1.16875</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -4152,6 +4750,12 @@
       <c r="K100" t="n">
         <v>6.396802785691694</v>
       </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1.188194444444444</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -4189,6 +4793,12 @@
       <c r="K101" t="n">
         <v>6.396802785691694</v>
       </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1.207638888888888</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -4226,6 +4836,12 @@
       <c r="K102" t="n">
         <v>6.396802785691694</v>
       </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1.227083333333333</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -4263,6 +4879,12 @@
       <c r="K103" t="n">
         <v>6.396802785691694</v>
       </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1.246527777777777</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -4300,6 +4922,12 @@
       <c r="K104" t="n">
         <v>6.396802785691694</v>
       </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1.265972222222221</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -4337,6 +4965,12 @@
       <c r="K105" t="n">
         <v>6.396802785691694</v>
       </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="n">
+        <v>1.285416666666666</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -4374,6 +5008,12 @@
       <c r="K106" t="n">
         <v>6.396802785691694</v>
       </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="n">
+        <v>1.30486111111111</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -4411,6 +5051,12 @@
       <c r="K107" t="n">
         <v>6.396802785691694</v>
       </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="n">
+        <v>1.324305555555554</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -4448,6 +5094,12 @@
       <c r="K108" t="n">
         <v>6.396802785691694</v>
       </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="n">
+        <v>1.343749999999999</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -4485,6 +5137,12 @@
       <c r="K109" t="n">
         <v>6.396802785691694</v>
       </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="n">
+        <v>1.363194444444443</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -4522,6 +5180,12 @@
       <c r="K110" t="n">
         <v>6.396802785691694</v>
       </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="n">
+        <v>1.382638888888887</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -4559,6 +5223,12 @@
       <c r="K111" t="n">
         <v>6.454673156062065</v>
       </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="n">
+        <v>1.402083333333332</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -4596,6 +5266,12 @@
       <c r="K112" t="n">
         <v>6.859765748654656</v>
       </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="n">
+        <v>1.421527777777776</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -4633,6 +5309,12 @@
       <c r="K113" t="n">
         <v>7.264858341247251</v>
       </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="n">
+        <v>1.440277777777776</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -4670,6 +5352,12 @@
       <c r="K114" t="n">
         <v>7.322728711617621</v>
       </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="n">
+        <v>1.458333333333332</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -4707,6 +5395,12 @@
       <c r="K115" t="n">
         <v>7.322728711617624</v>
       </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="n">
+        <v>1.475694444444443</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -4744,6 +5438,12 @@
       <c r="K116" t="n">
         <v>7.322728711617626</v>
       </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="n">
+        <v>1.492361111111109</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -4781,6 +5481,12 @@
       <c r="K117" t="n">
         <v>7.322728711617627</v>
       </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.508333333333332</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -4818,6 +5524,12 @@
       <c r="K118" t="n">
         <v>7.322728711617628</v>
       </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="n">
+        <v>1.523611111111109</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -4855,6 +5567,12 @@
       <c r="K119" t="n">
         <v>7.380599081987997</v>
       </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="n">
+        <v>1.538194444444443</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -4892,6 +5610,12 @@
       <c r="K120" t="n">
         <v>7.78569167458059</v>
       </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="n">
+        <v>1.552083333333332</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -4929,6 +5653,12 @@
       <c r="K121" t="n">
         <v>8.19078426717318</v>
       </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="n">
+        <v>1.565972222222221</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -4966,6 +5696,12 @@
       <c r="K122" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="n">
+        <v>1.579861111111109</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -5003,6 +5739,12 @@
       <c r="K123" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="n">
+        <v>1.593749999999998</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -5040,6 +5782,12 @@
       <c r="K124" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="n">
+        <v>1.607638888888887</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -5077,6 +5825,12 @@
       <c r="K125" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="n">
+        <v>1.621527777777776</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -5114,6 +5868,12 @@
       <c r="K126" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="n">
+        <v>1.635416666666665</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -5151,6 +5911,12 @@
       <c r="K127" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="n">
+        <v>1.649305555555554</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -5188,6 +5954,12 @@
       <c r="K128" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="n">
+        <v>1.663194444444443</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -5225,6 +5997,12 @@
       <c r="K129" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="n">
+        <v>1.677083333333332</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -5262,6 +6040,12 @@
       <c r="K130" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="n">
+        <v>1.690972222222221</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -5299,6 +6083,12 @@
       <c r="K131" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="n">
+        <v>1.70486111111111</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -5336,6 +6126,12 @@
       <c r="K132" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="n">
+        <v>1.718749999999999</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -5373,6 +6169,12 @@
       <c r="K133" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="n">
+        <v>1.732638888888888</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -5410,6 +6212,12 @@
       <c r="K134" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="n">
+        <v>1.746527777777777</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -5447,6 +6255,12 @@
       <c r="K135" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="n">
+        <v>1.760416666666665</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -5484,6 +6298,12 @@
       <c r="K136" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="n">
+        <v>1.774305555555554</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -5521,6 +6341,12 @@
       <c r="K137" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="n">
+        <v>1.788194444444443</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -5558,6 +6384,12 @@
       <c r="K138" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="n">
+        <v>1.802083333333332</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -5595,6 +6427,12 @@
       <c r="K139" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="n">
+        <v>1.815972222222221</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -5632,6 +6470,12 @@
       <c r="K140" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="n">
+        <v>1.82986111111111</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -5669,6 +6513,12 @@
       <c r="K141" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="n">
+        <v>1.843749999999999</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -5706,6 +6556,12 @@
       <c r="K142" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="n">
+        <v>1.857638888888888</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -5743,6 +6599,12 @@
       <c r="K143" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="n">
+        <v>1.871527777777777</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -5780,6 +6642,12 @@
       <c r="K144" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="n">
+        <v>1.885416666666666</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -5817,6 +6685,12 @@
       <c r="K145" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="n">
+        <v>1.899305555555554</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -5854,6 +6728,12 @@
       <c r="K146" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="n">
+        <v>1.913194444444444</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -5891,6 +6771,12 @@
       <c r="K147" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="n">
+        <v>1.927083333333332</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -5928,6 +6814,12 @@
       <c r="K148" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="n">
+        <v>1.940972222222221</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -5965,6 +6857,12 @@
       <c r="K149" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="n">
+        <v>1.95486111111111</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -6002,6 +6900,12 @@
       <c r="K150" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="n">
+        <v>1.968749999999999</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -6039,6 +6943,12 @@
       <c r="K151" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="n">
+        <v>1.982638888888888</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -6076,6 +6986,12 @@
       <c r="K152" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="n">
+        <v>1.996527777777777</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -6113,6 +7029,12 @@
       <c r="K153" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="n">
+        <v>2.010416666666666</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -6150,6 +7072,12 @@
       <c r="K154" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="n">
+        <v>2.024305555555555</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -6187,6 +7115,12 @@
       <c r="K155" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="n">
+        <v>2.038194444444444</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -6224,6 +7158,12 @@
       <c r="K156" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="n">
+        <v>2.052083333333333</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -6261,6 +7201,12 @@
       <c r="K157" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="n">
+        <v>2.065972222222221</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -6298,6 +7244,12 @@
       <c r="K158" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="n">
+        <v>2.07986111111111</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -6335,6 +7287,12 @@
       <c r="K159" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="n">
+        <v>2.093749999999999</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -6372,6 +7330,12 @@
       <c r="K160" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="n">
+        <v>2.107638888888888</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -6409,6 +7373,12 @@
       <c r="K161" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="n">
+        <v>2.121527777777776</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -6446,6 +7416,12 @@
       <c r="K162" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="n">
+        <v>2.135416666666665</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -6483,6 +7459,12 @@
       <c r="K163" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="n">
+        <v>2.149305555555554</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -6520,6 +7502,12 @@
       <c r="K164" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="n">
+        <v>2.163194444444442</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -6557,6 +7545,12 @@
       <c r="K165" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="n">
+        <v>2.177083333333331</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -6594,6 +7588,12 @@
       <c r="K166" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="n">
+        <v>2.19097222222222</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -6631,6 +7631,12 @@
       <c r="K167" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="n">
+        <v>2.204861111111108</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -6668,6 +7674,12 @@
       <c r="K168" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="n">
+        <v>2.218749999999997</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -6705,6 +7717,12 @@
       <c r="K169" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="n">
+        <v>2.232638888888885</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -6742,6 +7760,12 @@
       <c r="K170" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="n">
+        <v>2.246527777777774</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -6779,6 +7803,12 @@
       <c r="K171" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="n">
+        <v>2.260416666666663</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -6816,6 +7846,12 @@
       <c r="K172" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="n">
+        <v>2.274305555555551</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -6853,6 +7889,12 @@
       <c r="K173" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="n">
+        <v>2.28819444444444</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -6890,6 +7932,12 @@
       <c r="K174" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="n">
+        <v>2.302083333333329</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -6927,6 +7975,12 @@
       <c r="K175" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="n">
+        <v>2.315972222222217</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -6964,6 +8018,12 @@
       <c r="K176" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="n">
+        <v>2.329861111111106</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -7001,6 +8061,12 @@
       <c r="K177" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="n">
+        <v>2.343749999999995</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -7038,6 +8104,12 @@
       <c r="K178" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="n">
+        <v>2.357638888888884</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -7075,6 +8147,12 @@
       <c r="K179" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="n">
+        <v>2.371527777777772</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -7112,6 +8190,12 @@
       <c r="K180" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="n">
+        <v>2.385416666666661</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -7149,6 +8233,12 @@
       <c r="K181" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="n">
+        <v>2.39930555555555</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -7186,6 +8276,12 @@
       <c r="K182" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="n">
+        <v>2.413194444444438</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -7223,6 +8319,12 @@
       <c r="K183" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="n">
+        <v>2.427083333333327</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -7260,6 +8362,12 @@
       <c r="K184" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="n">
+        <v>2.440972222222216</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -7297,6 +8405,12 @@
       <c r="K185" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="n">
+        <v>2.454861111111104</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -7334,6 +8448,12 @@
       <c r="K186" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="n">
+        <v>2.468749999999993</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -7371,6 +8491,12 @@
       <c r="K187" t="n">
         <v>8.248654637543551</v>
       </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="n">
+        <v>2.482638888888882</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -7408,6 +8534,12 @@
       <c r="K188" t="n">
         <v>8.284267173156087</v>
       </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="n">
+        <v>2.496527777777771</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -7445,6 +8577,12 @@
       <c r="K189" t="n">
         <v>8.533554922443837</v>
       </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="n">
+        <v>2.510416666666659</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -7482,6 +8620,12 @@
       <c r="K190" t="n">
         <v>8.782842671731586</v>
       </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="n">
+        <v>2.524732905982899</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -7519,6 +8663,12 @@
       <c r="K191" t="n">
         <v>8.818455207344124</v>
       </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="n">
+        <v>2.539476495726488</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -7556,6 +8706,12 @@
       <c r="K192" t="n">
         <v>8.818455207344124</v>
       </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="n">
+        <v>2.554647435897428</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -7593,6 +8749,12 @@
       <c r="K193" t="n">
         <v>8.818455207344124</v>
       </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="n">
+        <v>2.570245726495719</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -7630,6 +8792,12 @@
       <c r="K194" t="n">
         <v>8.818455207344124</v>
       </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="n">
+        <v>2.58627136752136</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -7667,6 +8835,12 @@
       <c r="K195" t="n">
         <v>8.818455207344124</v>
       </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="n">
+        <v>2.602724358974351</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -7704,6 +8878,12 @@
       <c r="K196" t="n">
         <v>8.818455207344128</v>
       </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="n">
+        <v>2.619604700854693</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -7741,6 +8921,12 @@
       <c r="K197" t="n">
         <v>8.818455207344131</v>
       </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="n">
+        <v>2.636912393162385</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -7778,6 +8964,12 @@
       <c r="K198" t="n">
         <v>8.818455207344131</v>
       </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="n">
+        <v>2.654647435897428</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -7815,6 +9007,12 @@
       <c r="K199" t="n">
         <v>8.818455207344135</v>
       </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="n">
+        <v>2.672809829059821</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -7852,6 +9050,12 @@
       <c r="K200" t="n">
         <v>8.818455207344137</v>
       </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="n">
+        <v>2.691399572649565</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -7889,6 +9093,12 @@
       <c r="K201" t="n">
         <v>8.854067742956673</v>
       </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="n">
+        <v>2.710416666666659</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -7926,6 +9136,12 @@
       <c r="K202" t="n">
         <v>9.103355492244424</v>
       </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="n">
+        <v>2.729861111111104</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -7963,6 +9179,12 @@
       <c r="K203" t="n">
         <v>9.352643241532171</v>
       </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="n">
+        <v>2.749305555555548</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -8000,6 +9222,12 @@
       <c r="K204" t="n">
         <v>9.388255777144707</v>
       </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="n">
+        <v>2.768749999999992</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -8037,6 +9265,12 @@
       <c r="K205" t="n">
         <v>9.388255777144707</v>
       </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="n">
+        <v>2.788194444444437</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -8074,6 +9308,12 @@
       <c r="K206" t="n">
         <v>9.388255777144707</v>
       </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="n">
+        <v>2.807638888888881</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -8111,6 +9351,12 @@
       <c r="K207" t="n">
         <v>9.388255777144707</v>
       </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="n">
+        <v>2.827083333333325</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -8148,6 +9394,12 @@
       <c r="K208" t="n">
         <v>9.388255777144707</v>
       </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="n">
+        <v>2.84652777777777</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -8185,6 +9437,12 @@
       <c r="K209" t="n">
         <v>9.388255777144707</v>
       </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="n">
+        <v>2.865972222222214</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -8222,6 +9480,12 @@
       <c r="K210" t="n">
         <v>9.388255777144707</v>
       </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="n">
+        <v>2.885416666666659</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -8259,6 +9523,12 @@
       <c r="K211" t="n">
         <v>9.388255777144707</v>
       </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="n">
+        <v>2.904861111111102</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -8296,6 +9566,12 @@
       <c r="K212" t="n">
         <v>9.388255777144707</v>
       </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="n">
+        <v>2.924305555555547</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -8333,6 +9609,12 @@
       <c r="K213" t="n">
         <v>9.388255777144707</v>
       </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="n">
+        <v>2.943749999999991</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -8370,6 +9652,12 @@
       <c r="K214" t="n">
         <v>9.388255777144707</v>
       </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="n">
+        <v>2.963194444444436</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -8407,6 +9695,12 @@
       <c r="K215" t="n">
         <v>9.388255777144707</v>
       </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="n">
+        <v>2.98263888888888</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -8444,6 +9738,12 @@
       <c r="K216" t="n">
         <v>9.388255777144707</v>
       </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="n">
+        <v>3.002083333333324</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -8481,6 +9781,12 @@
       <c r="K217" t="n">
         <v>9.388255777144707</v>
       </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="n">
+        <v>3.021527777777769</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -8518,6 +9824,12 @@
       <c r="K218" t="n">
         <v>9.388255777144707</v>
       </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="n">
+        <v>3.040972222222213</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -8555,6 +9867,12 @@
       <c r="K219" t="n">
         <v>9.388255777144707</v>
       </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="n">
+        <v>3.060416666666657</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -8592,6 +9910,12 @@
       <c r="K220" t="n">
         <v>9.388255777144707</v>
       </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="n">
+        <v>3.079861111111102</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -8629,6 +9953,12 @@
       <c r="K221" t="n">
         <v>9.388255777144707</v>
       </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="n">
+        <v>3.099305555555546</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -8666,6 +9996,12 @@
       <c r="K222" t="n">
         <v>9.388255777144707</v>
       </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="n">
+        <v>3.118749999999991</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -8703,6 +10039,12 @@
       <c r="K223" t="n">
         <v>9.388255777144707</v>
       </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="n">
+        <v>3.138194444444435</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -8740,6 +10082,12 @@
       <c r="K224" t="n">
         <v>9.388255777144707</v>
       </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="n">
+        <v>3.157638888888879</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -8777,6 +10125,12 @@
       <c r="K225" t="n">
         <v>9.388255777144707</v>
       </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="n">
+        <v>3.177083333333323</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -8814,6 +10168,12 @@
       <c r="K226" t="n">
         <v>9.388255777144707</v>
       </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="n">
+        <v>3.196527777777768</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -8851,6 +10211,12 @@
       <c r="K227" t="n">
         <v>9.388255777144707</v>
       </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="n">
+        <v>3.215972222222212</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -8888,6 +10254,12 @@
       <c r="K228" t="n">
         <v>9.388255777144707</v>
       </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="n">
+        <v>3.235416666666656</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -8925,6 +10297,12 @@
       <c r="K229" t="n">
         <v>9.388255777144707</v>
       </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="n">
+        <v>3.254861111111101</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -8962,6 +10340,12 @@
       <c r="K230" t="n">
         <v>9.388255777144707</v>
       </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="n">
+        <v>3.274305555555545</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -8999,6 +10383,12 @@
       <c r="K231" t="n">
         <v>9.388255777144707</v>
       </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="n">
+        <v>3.29374999999999</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -9036,6 +10426,12 @@
       <c r="K232" t="n">
         <v>9.388255777144707</v>
       </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="n">
+        <v>3.313194444444434</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -9073,6 +10469,12 @@
       <c r="K233" t="n">
         <v>9.388255777144707</v>
       </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="n">
+        <v>3.332638888888878</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -9110,6 +10512,12 @@
       <c r="K234" t="n">
         <v>9.388255777144707</v>
       </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="n">
+        <v>3.352083333333323</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -9147,6 +10555,12 @@
       <c r="K235" t="n">
         <v>9.388255777144707</v>
       </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="n">
+        <v>3.371527777777767</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -9184,6 +10598,12 @@
       <c r="K236" t="n">
         <v>9.388255777144707</v>
       </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="n">
+        <v>3.390972222222211</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -9221,6 +10641,12 @@
       <c r="K237" t="n">
         <v>9.388255777144707</v>
       </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="n">
+        <v>3.410416666666656</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -9258,6 +10684,12 @@
       <c r="K238" t="n">
         <v>9.388255777144707</v>
       </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="n">
+        <v>3.4298611111111</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -9295,6 +10727,12 @@
       <c r="K239" t="n">
         <v>9.388255777144707</v>
       </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="n">
+        <v>3.449305555555544</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -9332,6 +10770,12 @@
       <c r="K240" t="n">
         <v>9.388255777144707</v>
       </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="n">
+        <v>3.468749999999988</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -9369,6 +10813,12 @@
       <c r="K241" t="n">
         <v>9.388255777144707</v>
       </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="n">
+        <v>3.488194444444433</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -9406,6 +10856,12 @@
       <c r="K242" t="n">
         <v>9.388255777144707</v>
       </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="n">
+        <v>3.507638888888877</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -9443,6 +10899,12 @@
       <c r="K243" t="n">
         <v>9.388255777144707</v>
       </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="n">
+        <v>3.527083333333322</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -9480,6 +10942,12 @@
       <c r="K244" t="n">
         <v>9.388255777144707</v>
       </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="n">
+        <v>3.546527777777766</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -9517,6 +10985,12 @@
       <c r="K245" t="n">
         <v>9.388255777144707</v>
       </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="n">
+        <v>3.56597222222221</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -9554,6 +11028,12 @@
       <c r="K246" t="n">
         <v>9.388255777144707</v>
       </c>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="n">
+        <v>3.585416666666655</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -9591,6 +11071,12 @@
       <c r="K247" t="n">
         <v>9.388255777144707</v>
       </c>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="n">
+        <v>3.604861111111099</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -9628,6 +11114,12 @@
       <c r="K248" t="n">
         <v>9.388255777144707</v>
       </c>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="n">
+        <v>3.624305555555543</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -9665,6 +11157,12 @@
       <c r="K249" t="n">
         <v>9.388255777144707</v>
       </c>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="n">
+        <v>3.643749999999988</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -9702,6 +11200,12 @@
       <c r="K250" t="n">
         <v>9.388255777144707</v>
       </c>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="n">
+        <v>3.663194444444432</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -9739,6 +11243,12 @@
       <c r="K251" t="n">
         <v>9.408097046985977</v>
       </c>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="n">
+        <v>3.682638888888877</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -9776,6 +11286,12 @@
       <c r="K252" t="n">
         <v>9.54698593587487</v>
       </c>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="n">
+        <v>3.702083333333321</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -9813,6 +11329,12 @@
       <c r="K253" t="n">
         <v>9.685874824763756</v>
       </c>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="n">
+        <v>3.72176587301586</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -9850,6 +11372,12 @@
       <c r="K254" t="n">
         <v>9.705716094605027</v>
       </c>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="n">
+        <v>3.741686507936495</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -9887,6 +11415,12 @@
       <c r="K255" t="n">
         <v>9.705716094605028</v>
       </c>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="n">
+        <v>3.761845238095225</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -9924,6 +11458,12 @@
       <c r="K256" t="n">
         <v>9.705716094605028</v>
       </c>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="n">
+        <v>3.782242063492051</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -9961,6 +11501,12 @@
       <c r="K257" t="n">
         <v>9.70571609460503</v>
       </c>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="n">
+        <v>3.802876984126971</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -9998,6 +11544,12 @@
       <c r="K258" t="n">
         <v>9.70571609460503</v>
       </c>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="n">
+        <v>3.823749999999987</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -10035,6 +11587,12 @@
       <c r="K259" t="n">
         <v>9.705716094605036</v>
       </c>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="n">
+        <v>3.844861111111098</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -10072,6 +11630,12 @@
       <c r="K260" t="n">
         <v>9.705716094605041</v>
       </c>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="n">
+        <v>3.866210317460305</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -10109,6 +11673,12 @@
       <c r="K261" t="n">
         <v>9.705716094605041</v>
       </c>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="n">
+        <v>3.887797619047606</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -10146,6 +11716,12 @@
       <c r="K262" t="n">
         <v>9.705716094605046</v>
       </c>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="n">
+        <v>3.909623015873003</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -10183,6 +11759,12 @@
       <c r="K263" t="n">
         <v>9.705716094605046</v>
       </c>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="n">
+        <v>3.931686507936495</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -10220,6 +11802,12 @@
       <c r="K264" t="n">
         <v>9.705716094605048</v>
       </c>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="n">
+        <v>3.953988095238083</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -10257,6 +11845,12 @@
       <c r="K265" t="n">
         <v>9.705716094605048</v>
       </c>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="n">
+        <v>3.976527777777765</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -10294,6 +11888,12 @@
       <c r="K266" t="n">
         <v>9.70571609460505</v>
       </c>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="n">
+        <v>3.999305555555543</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -10331,6 +11931,12 @@
       <c r="K267" t="n">
         <v>9.705716094605053</v>
       </c>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="n">
+        <v>4.022321428571416</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -10368,6 +11974,12 @@
       <c r="K268" t="n">
         <v>9.705716094605053</v>
       </c>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="n">
+        <v>4.045575396825384</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -10405,6 +12017,12 @@
       <c r="K269" t="n">
         <v>9.705716094605055</v>
       </c>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="n">
+        <v>4.069067460317448</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -10442,6 +12060,12 @@
       <c r="K270" t="n">
         <v>9.705716094605059</v>
       </c>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="n">
+        <v>4.092797619047607</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -10479,6 +12103,12 @@
       <c r="K271" t="n">
         <v>9.70571609460506</v>
       </c>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="n">
+        <v>4.11676587301586</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -10516,6 +12146,12 @@
       <c r="K272" t="n">
         <v>9.70571609460506</v>
       </c>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="n">
+        <v>4.140972222222209</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -10553,6 +12189,12 @@
       <c r="K273" t="n">
         <v>9.705716094605062</v>
       </c>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="n">
+        <v>4.165416666666653</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -10590,6 +12232,12 @@
       <c r="K274" t="n">
         <v>9.705716094605062</v>
       </c>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="n">
+        <v>4.190099206349193</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -10627,6 +12275,12 @@
       <c r="K275" t="n">
         <v>9.705716094605066</v>
       </c>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="n">
+        <v>4.215019841269828</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -10664,6 +12318,12 @@
       <c r="K276" t="n">
         <v>9.705716094605066</v>
       </c>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="n">
+        <v>4.240178571428559</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -10701,6 +12361,12 @@
       <c r="K277" t="n">
         <v>9.705716094605066</v>
       </c>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="n">
+        <v>4.265575396825384</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -10738,6 +12404,12 @@
       <c r="K278" t="n">
         <v>9.705716094605066</v>
       </c>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="n">
+        <v>4.291210317460305</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -10775,6 +12447,12 @@
       <c r="K279" t="n">
         <v>9.705716094605068</v>
       </c>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="n">
+        <v>4.31708333333332</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -10812,6 +12490,12 @@
       <c r="K280" t="n">
         <v>9.705716094605068</v>
       </c>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="n">
+        <v>4.343194444444432</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -10849,6 +12533,12 @@
       <c r="K281" t="n">
         <v>9.705716094605069</v>
       </c>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="n">
+        <v>4.369543650793639</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -10886,6 +12576,12 @@
       <c r="K282" t="n">
         <v>9.705716094605071</v>
       </c>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="n">
+        <v>4.39613095238094</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -10923,6 +12619,12 @@
       <c r="K283" t="n">
         <v>9.705716094605073</v>
       </c>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="n">
+        <v>4.422956349206336</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -10960,6 +12662,12 @@
       <c r="K284" t="n">
         <v>9.705716094605076</v>
       </c>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="n">
+        <v>4.450019841269828</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -10997,6 +12705,12 @@
       <c r="K285" t="n">
         <v>9.705716094605076</v>
       </c>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="n">
+        <v>4.477321428571416</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -11034,6 +12748,12 @@
       <c r="K286" t="n">
         <v>9.725557364446351</v>
       </c>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="n">
+        <v>4.504861111111099</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -11071,6 +12791,12 @@
       <c r="K287" t="n">
         <v>9.864446253335242</v>
       </c>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="n">
+        <v>4.532638888888876</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -11108,6 +12834,12 @@
       <c r="K288" t="n">
         <v>10.00333514222413</v>
       </c>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="n">
+        <v>4.560416666666653</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -11145,6 +12877,12 @@
       <c r="K289" t="n">
         <v>10.0231764120654</v>
       </c>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="n">
+        <v>4.588194444444431</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -11182,6 +12920,12 @@
       <c r="K290" t="n">
         <v>10.0231764120654</v>
       </c>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="n">
+        <v>4.615972222222208</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -11219,6 +12963,12 @@
       <c r="K291" t="n">
         <v>10.0231764120654</v>
       </c>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="n">
+        <v>4.643749999999986</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -11256,6 +13006,12 @@
       <c r="K292" t="n">
         <v>10.0231764120654</v>
       </c>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="n">
+        <v>4.671527777777762</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -11293,6 +13049,12 @@
       <c r="K293" t="n">
         <v>10.0231764120654</v>
       </c>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="n">
+        <v>4.69930555555554</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -11330,6 +13092,12 @@
       <c r="K294" t="n">
         <v>10.0231764120654</v>
       </c>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="n">
+        <v>4.727083333333318</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -11367,6 +13135,12 @@
       <c r="K295" t="n">
         <v>10.0231764120654</v>
       </c>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="n">
+        <v>4.754861111111095</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -11404,6 +13178,12 @@
       <c r="K296" t="n">
         <v>10.0231764120654</v>
       </c>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="n">
+        <v>4.782638888888872</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -11441,6 +13221,12 @@
       <c r="K297" t="n">
         <v>10.0231764120654</v>
       </c>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="n">
+        <v>4.81041666666665</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -11478,6 +13264,12 @@
       <c r="K298" t="n">
         <v>10.0231764120654</v>
       </c>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="n">
+        <v>4.838194444444427</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -11515,6 +13307,12 @@
       <c r="K299" t="n">
         <v>10.0231764120654</v>
       </c>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="n">
+        <v>4.865972222222204</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -11552,6 +13350,12 @@
       <c r="K300" t="n">
         <v>10.0231764120654</v>
       </c>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="n">
+        <v>4.893749999999982</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -11589,6 +13393,12 @@
       <c r="K301" t="n">
         <v>10.0231764120654</v>
       </c>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="n">
+        <v>4.921527777777759</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -11626,6 +13436,12 @@
       <c r="K302" t="n">
         <v>10.0231764120654</v>
       </c>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="n">
+        <v>4.949305555555537</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -11663,6 +13479,12 @@
       <c r="K303" t="n">
         <v>10.0231764120654</v>
       </c>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="n">
+        <v>4.977083333333314</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -11700,6 +13522,12 @@
       <c r="K304" t="n">
         <v>10.0231764120654</v>
       </c>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="n">
+        <v>5.004861111111091</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -11737,6 +13565,12 @@
       <c r="K305" t="n">
         <v>10.0231764120654</v>
       </c>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="n">
+        <v>5.032638888888869</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -11774,6 +13608,12 @@
       <c r="K306" t="n">
         <v>10.0231764120654</v>
       </c>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="n">
+        <v>5.060416666666646</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -11811,6 +13651,12 @@
       <c r="K307" t="n">
         <v>10.0231764120654</v>
       </c>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="n">
+        <v>5.088194444444423</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -11848,6 +13694,12 @@
       <c r="K308" t="n">
         <v>10.0231764120654</v>
       </c>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="n">
+        <v>5.115972222222201</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -11885,6 +13737,12 @@
       <c r="K309" t="n">
         <v>10.0231764120654</v>
       </c>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="n">
+        <v>5.143749999999979</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -11922,6 +13780,12 @@
       <c r="K310" t="n">
         <v>10.0231764120654</v>
       </c>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="n">
+        <v>5.171527777777755</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -11959,6 +13823,12 @@
       <c r="K311" t="n">
         <v>10.0231764120654</v>
       </c>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="n">
+        <v>5.199305555555533</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -11996,6 +13866,12 @@
       <c r="K312" t="n">
         <v>10.0231764120654</v>
       </c>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="n">
+        <v>5.227083333333311</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -12033,6 +13909,12 @@
       <c r="K313" t="n">
         <v>10.0231764120654</v>
       </c>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="n">
+        <v>5.254861111111087</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -12070,6 +13952,12 @@
       <c r="K314" t="n">
         <v>10.0231764120654</v>
       </c>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="n">
+        <v>5.282638888888865</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -12107,6 +13995,12 @@
       <c r="K315" t="n">
         <v>10.0231764120654</v>
       </c>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="n">
+        <v>5.310416666666643</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -12144,6 +14038,12 @@
       <c r="K316" t="n">
         <v>10.04632456021355</v>
       </c>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="n">
+        <v>5.33819444444442</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -12181,6 +14081,12 @@
       <c r="K317" t="n">
         <v>10.20836159725058</v>
       </c>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="n">
+        <v>5.365972222222197</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -12218,6 +14124,12 @@
       <c r="K318" t="n">
         <v>10.37039863428762</v>
       </c>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="n">
+        <v>5.394027777777753</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -12255,6 +14167,12 @@
       <c r="K319" t="n">
         <v>10.39354678243577</v>
       </c>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="n">
+        <v>5.422361111111086</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -12292,6 +14210,12 @@
       <c r="K320" t="n">
         <v>10.39354678243577</v>
       </c>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="n">
+        <v>5.450972222222197</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -12329,6 +14253,12 @@
       <c r="K321" t="n">
         <v>10.39354678243577</v>
       </c>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="n">
+        <v>5.479861111111086</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -12366,6 +14296,12 @@
       <c r="K322" t="n">
         <v>10.39354678243577</v>
       </c>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="n">
+        <v>5.509027777777753</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -12403,6 +14339,12 @@
       <c r="K323" t="n">
         <v>10.39354678243577</v>
       </c>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="n">
+        <v>5.538472222222198</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -12440,6 +14382,12 @@
       <c r="K324" t="n">
         <v>10.39354678243577</v>
       </c>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="n">
+        <v>5.56819444444442</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -12477,6 +14425,12 @@
       <c r="K325" t="n">
         <v>10.39354678243577</v>
       </c>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="n">
+        <v>5.598194444444419</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -12514,6 +14468,12 @@
       <c r="K326" t="n">
         <v>10.39354678243578</v>
       </c>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="n">
+        <v>5.628472222222197</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -12551,6 +14511,12 @@
       <c r="K327" t="n">
         <v>10.39354678243578</v>
       </c>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="n">
+        <v>5.659027777777752</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -12588,6 +14554,12 @@
       <c r="K328" t="n">
         <v>10.39354678243578</v>
       </c>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="n">
+        <v>5.689861111111086</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -12625,6 +14597,12 @@
       <c r="K329" t="n">
         <v>10.39354678243578</v>
       </c>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="n">
+        <v>5.720972222222197</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -12662,6 +14640,12 @@
       <c r="K330" t="n">
         <v>10.39354678243578</v>
       </c>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="n">
+        <v>5.752361111111086</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -12699,6 +14683,12 @@
       <c r="K331" t="n">
         <v>10.39354678243578</v>
       </c>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="n">
+        <v>5.784027777777752</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -12736,6 +14726,12 @@
       <c r="K332" t="n">
         <v>10.39354678243579</v>
       </c>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="n">
+        <v>5.815972222222197</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -12773,6 +14769,12 @@
       <c r="K333" t="n">
         <v>10.39354678243579</v>
       </c>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="n">
+        <v>5.848194444444419</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -12810,6 +14812,12 @@
       <c r="K334" t="n">
         <v>10.39354678243579</v>
       </c>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="n">
+        <v>5.88069444444442</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -12847,6 +14855,12 @@
       <c r="K335" t="n">
         <v>10.39354678243579</v>
       </c>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="n">
+        <v>5.913472222222198</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -12884,6 +14898,12 @@
       <c r="K336" t="n">
         <v>10.41669493058394</v>
       </c>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="n">
+        <v>5.946527777777753</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -12921,2373 +14941,11 @@
       <c r="K337" t="n">
         <v>10.57873196762098</v>
       </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="n">
-        <v>2</v>
-      </c>
-      <c r="B338" t="n">
-        <v>336</v>
-      </c>
-      <c r="C338" t="n">
-        <v>120</v>
-      </c>
-      <c r="D338" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E338" t="n">
-        <v>33.33333333333334</v>
-      </c>
-      <c r="F338" t="n">
-        <v>-0.02314814814814881</v>
-      </c>
-      <c r="G338" t="n">
-        <v>0.02314814814814881</v>
-      </c>
-      <c r="H338" t="n">
-        <v>45.78993408854521</v>
-      </c>
-      <c r="I338" t="n">
-        <v>-0.1620370370370375</v>
-      </c>
-      <c r="J338" t="n">
-        <v>0.1620370370370375</v>
-      </c>
-      <c r="K338" t="n">
-        <v>10.74076900465801</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="n">
-        <v>2</v>
-      </c>
-      <c r="B339" t="n">
-        <v>337</v>
-      </c>
-      <c r="C339" t="n">
-        <v>120</v>
-      </c>
-      <c r="D339" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E339" t="n">
-        <v>33.33333333333334</v>
-      </c>
-      <c r="F339" t="n">
-        <v>-5.921189464667501e-16</v>
-      </c>
-      <c r="G339" t="n">
-        <v>5.921189464667501e-16</v>
-      </c>
-      <c r="H339" t="n">
-        <v>45.78993408854521</v>
-      </c>
-      <c r="I339" t="n">
-        <v>0.02314814814814821</v>
-      </c>
-      <c r="J339" t="n">
-        <v>0.02314814814814821</v>
-      </c>
-      <c r="K339" t="n">
-        <v>10.76391715280616</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="n">
-        <v>2</v>
-      </c>
-      <c r="B340" t="n">
-        <v>338</v>
-      </c>
-      <c r="C340" t="n">
-        <v>120</v>
-      </c>
-      <c r="D340" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E340" t="n">
-        <v>33.33333333333334</v>
-      </c>
-      <c r="F340" t="n">
-        <v>-5.921189464667501e-16</v>
-      </c>
-      <c r="G340" t="n">
-        <v>5.921189464667501e-16</v>
-      </c>
-      <c r="H340" t="n">
-        <v>45.78993408854521</v>
-      </c>
-      <c r="I340" t="n">
-        <v>0</v>
-      </c>
-      <c r="J340" t="n">
-        <v>0</v>
-      </c>
-      <c r="K340" t="n">
-        <v>10.76391715280616</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="n">
-        <v>2</v>
-      </c>
-      <c r="B341" t="n">
-        <v>339</v>
-      </c>
-      <c r="C341" t="n">
-        <v>120</v>
-      </c>
-      <c r="D341" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E341" t="n">
-        <v>33.33333333333334</v>
-      </c>
-      <c r="F341" t="n">
-        <v>-5.921189464667501e-16</v>
-      </c>
-      <c r="G341" t="n">
-        <v>5.921189464667501e-16</v>
-      </c>
-      <c r="H341" t="n">
-        <v>45.78993408854521</v>
-      </c>
-      <c r="I341" t="n">
-        <v>0</v>
-      </c>
-      <c r="J341" t="n">
-        <v>0</v>
-      </c>
-      <c r="K341" t="n">
-        <v>10.76391715280616</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="n">
-        <v>2</v>
-      </c>
-      <c r="B342" t="n">
-        <v>340</v>
-      </c>
-      <c r="C342" t="n">
-        <v>120</v>
-      </c>
-      <c r="D342" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E342" t="n">
-        <v>33.33333333333334</v>
-      </c>
-      <c r="F342" t="n">
-        <v>-5.921189464667501e-16</v>
-      </c>
-      <c r="G342" t="n">
-        <v>5.921189464667501e-16</v>
-      </c>
-      <c r="H342" t="n">
-        <v>45.78993408854521</v>
-      </c>
-      <c r="I342" t="n">
-        <v>0</v>
-      </c>
-      <c r="J342" t="n">
-        <v>0</v>
-      </c>
-      <c r="K342" t="n">
-        <v>10.76391715280616</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="n">
-        <v>2</v>
-      </c>
-      <c r="B343" t="n">
-        <v>341</v>
-      </c>
-      <c r="C343" t="n">
-        <v>120</v>
-      </c>
-      <c r="D343" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E343" t="n">
-        <v>33.33333333333334</v>
-      </c>
-      <c r="F343" t="n">
-        <v>-5.921189464667501e-16</v>
-      </c>
-      <c r="G343" t="n">
-        <v>5.921189464667501e-16</v>
-      </c>
-      <c r="H343" t="n">
-        <v>45.78993408854521</v>
-      </c>
-      <c r="I343" t="n">
-        <v>0</v>
-      </c>
-      <c r="J343" t="n">
-        <v>0</v>
-      </c>
-      <c r="K343" t="n">
-        <v>10.76391715280616</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="n">
-        <v>2</v>
-      </c>
-      <c r="B344" t="n">
-        <v>342</v>
-      </c>
-      <c r="C344" t="n">
-        <v>120</v>
-      </c>
-      <c r="D344" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E344" t="n">
-        <v>33.33333333333334</v>
-      </c>
-      <c r="F344" t="n">
-        <v>-5.921189464667501e-16</v>
-      </c>
-      <c r="G344" t="n">
-        <v>5.921189464667501e-16</v>
-      </c>
-      <c r="H344" t="n">
-        <v>45.78993408854521</v>
-      </c>
-      <c r="I344" t="n">
-        <v>0</v>
-      </c>
-      <c r="J344" t="n">
-        <v>0</v>
-      </c>
-      <c r="K344" t="n">
-        <v>10.76391715280616</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="n">
-        <v>2</v>
-      </c>
-      <c r="B345" t="n">
-        <v>343</v>
-      </c>
-      <c r="C345" t="n">
-        <v>120</v>
-      </c>
-      <c r="D345" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E345" t="n">
-        <v>33.33333333333334</v>
-      </c>
-      <c r="F345" t="n">
-        <v>-5.921189464667501e-16</v>
-      </c>
-      <c r="G345" t="n">
-        <v>5.921189464667501e-16</v>
-      </c>
-      <c r="H345" t="n">
-        <v>45.78993408854521</v>
-      </c>
-      <c r="I345" t="n">
-        <v>0</v>
-      </c>
-      <c r="J345" t="n">
-        <v>0</v>
-      </c>
-      <c r="K345" t="n">
-        <v>10.76391715280616</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="n">
-        <v>2</v>
-      </c>
-      <c r="B346" t="n">
-        <v>344</v>
-      </c>
-      <c r="C346" t="n">
-        <v>120</v>
-      </c>
-      <c r="D346" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E346" t="n">
-        <v>33.33333333333334</v>
-      </c>
-      <c r="F346" t="n">
-        <v>0.05787037037037083</v>
-      </c>
-      <c r="G346" t="n">
-        <v>0.05787037037037083</v>
-      </c>
-      <c r="H346" t="n">
-        <v>45.84780445891558</v>
-      </c>
-      <c r="I346" t="n">
-        <v>0.05787037037037142</v>
-      </c>
-      <c r="J346" t="n">
-        <v>0.05787037037037142</v>
-      </c>
-      <c r="K346" t="n">
-        <v>10.82178752317654</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="n">
-        <v>2</v>
-      </c>
-      <c r="B347" t="n">
-        <v>345</v>
-      </c>
-      <c r="C347" t="n">
-        <v>120</v>
-      </c>
-      <c r="D347" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E347" t="n">
-        <v>33.33333333333334</v>
-      </c>
-      <c r="F347" t="n">
-        <v>-0.3472222222222268</v>
-      </c>
-      <c r="G347" t="n">
-        <v>0.3472222222222268</v>
-      </c>
-      <c r="H347" t="n">
-        <v>46.19502668113781</v>
-      </c>
-      <c r="I347" t="n">
-        <v>-0.4050925925925976</v>
-      </c>
-      <c r="J347" t="n">
-        <v>0.4050925925925976</v>
-      </c>
-      <c r="K347" t="n">
-        <v>11.22688011576913</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="n">
-        <v>2</v>
-      </c>
-      <c r="B348" t="n">
-        <v>346</v>
-      </c>
-      <c r="C348" t="n">
-        <v>117.5</v>
-      </c>
-      <c r="D348" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E348" t="n">
-        <v>32.63888888888889</v>
-      </c>
-      <c r="F348" t="n">
-        <v>-0.7523148148148172</v>
-      </c>
-      <c r="G348" t="n">
-        <v>0.7523148148148172</v>
-      </c>
-      <c r="H348" t="n">
-        <v>46.94734149595263</v>
-      </c>
-      <c r="I348" t="n">
-        <v>-0.4050925925925905</v>
-      </c>
-      <c r="J348" t="n">
-        <v>0.4050925925925905</v>
-      </c>
-      <c r="K348" t="n">
-        <v>11.63197270836172</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="n">
-        <v>2</v>
-      </c>
-      <c r="B349" t="n">
-        <v>347</v>
-      </c>
-      <c r="C349" t="n">
-        <v>115</v>
-      </c>
-      <c r="D349" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E349" t="n">
-        <v>31.94444444444444</v>
-      </c>
-      <c r="F349" t="n">
-        <v>-0.6944444444444411</v>
-      </c>
-      <c r="G349" t="n">
-        <v>0.6944444444444411</v>
-      </c>
-      <c r="H349" t="n">
-        <v>47.64178594039707</v>
-      </c>
-      <c r="I349" t="n">
-        <v>0.05787037037037612</v>
-      </c>
-      <c r="J349" t="n">
-        <v>0.05787037037037612</v>
-      </c>
-      <c r="K349" t="n">
-        <v>11.6898430787321</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="n">
-        <v>2</v>
-      </c>
-      <c r="B350" t="n">
-        <v>348</v>
-      </c>
-      <c r="C350" t="n">
-        <v>112.5</v>
-      </c>
-      <c r="D350" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E350" t="n">
-        <v>31.25</v>
-      </c>
-      <c r="F350" t="n">
-        <v>-0.6944444444444452</v>
-      </c>
-      <c r="G350" t="n">
-        <v>0.6944444444444452</v>
-      </c>
-      <c r="H350" t="n">
-        <v>48.33623038484151</v>
-      </c>
-      <c r="I350" t="n">
-        <v>-4.107825191113079e-15</v>
-      </c>
-      <c r="J350" t="n">
-        <v>4.107825191113079e-15</v>
-      </c>
-      <c r="K350" t="n">
-        <v>11.6898430787321</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="n">
-        <v>2</v>
-      </c>
-      <c r="B351" t="n">
-        <v>349</v>
-      </c>
-      <c r="C351" t="n">
-        <v>110</v>
-      </c>
-      <c r="D351" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E351" t="n">
-        <v>30.55555555555555</v>
-      </c>
-      <c r="F351" t="n">
-        <v>-0.6944444444444441</v>
-      </c>
-      <c r="G351" t="n">
-        <v>0.6944444444444441</v>
-      </c>
-      <c r="H351" t="n">
-        <v>49.03067482928596</v>
-      </c>
-      <c r="I351" t="n">
-        <v>1.110223024625157e-15</v>
-      </c>
-      <c r="J351" t="n">
-        <v>1.110223024625157e-15</v>
-      </c>
-      <c r="K351" t="n">
-        <v>11.6898430787321</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="n">
-        <v>2</v>
-      </c>
-      <c r="B352" t="n">
-        <v>350</v>
-      </c>
-      <c r="C352" t="n">
-        <v>107.5</v>
-      </c>
-      <c r="D352" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E352" t="n">
-        <v>29.86111111111111</v>
-      </c>
-      <c r="F352" t="n">
-        <v>-0.6944444444444452</v>
-      </c>
-      <c r="G352" t="n">
-        <v>0.6944444444444452</v>
-      </c>
-      <c r="H352" t="n">
-        <v>49.7251192737304</v>
-      </c>
-      <c r="I352" t="n">
-        <v>-1.110223024625157e-15</v>
-      </c>
-      <c r="J352" t="n">
-        <v>1.110223024625157e-15</v>
-      </c>
-      <c r="K352" t="n">
-        <v>11.68984307873211</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="n">
-        <v>2</v>
-      </c>
-      <c r="B353" t="n">
-        <v>351</v>
-      </c>
-      <c r="C353" t="n">
-        <v>105</v>
-      </c>
-      <c r="D353" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E353" t="n">
-        <v>29.16666666666666</v>
-      </c>
-      <c r="F353" t="n">
-        <v>-0.6944444444444443</v>
-      </c>
-      <c r="G353" t="n">
-        <v>0.6944444444444443</v>
-      </c>
-      <c r="H353" t="n">
-        <v>50.41956371817484</v>
-      </c>
-      <c r="I353" t="n">
-        <v>8.881784197001252e-16</v>
-      </c>
-      <c r="J353" t="n">
-        <v>8.881784197001252e-16</v>
-      </c>
-      <c r="K353" t="n">
-        <v>11.68984307873211</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="n">
-        <v>2</v>
-      </c>
-      <c r="B354" t="n">
-        <v>352</v>
-      </c>
-      <c r="C354" t="n">
-        <v>102.5</v>
-      </c>
-      <c r="D354" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E354" t="n">
-        <v>28.47222222222222</v>
-      </c>
-      <c r="F354" t="n">
-        <v>-0.6944444444444432</v>
-      </c>
-      <c r="G354" t="n">
-        <v>0.6944444444444432</v>
-      </c>
-      <c r="H354" t="n">
-        <v>51.11400816261929</v>
-      </c>
-      <c r="I354" t="n">
-        <v>1.110223024625157e-15</v>
-      </c>
-      <c r="J354" t="n">
-        <v>1.110223024625157e-15</v>
-      </c>
-      <c r="K354" t="n">
-        <v>11.68984307873211</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="n">
-        <v>2</v>
-      </c>
-      <c r="B355" t="n">
-        <v>353</v>
-      </c>
-      <c r="C355" t="n">
-        <v>100</v>
-      </c>
-      <c r="D355" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E355" t="n">
-        <v>27.77777777777778</v>
-      </c>
-      <c r="F355" t="n">
-        <v>-0.6944444444444446</v>
-      </c>
-      <c r="G355" t="n">
-        <v>0.6944444444444446</v>
-      </c>
-      <c r="H355" t="n">
-        <v>51.80845260706373</v>
-      </c>
-      <c r="I355" t="n">
-        <v>-1.443289932012704e-15</v>
-      </c>
-      <c r="J355" t="n">
-        <v>1.443289932012704e-15</v>
-      </c>
-      <c r="K355" t="n">
-        <v>11.68984307873211</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="n">
-        <v>2</v>
-      </c>
-      <c r="B356" t="n">
-        <v>354</v>
-      </c>
-      <c r="C356" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="D356" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E356" t="n">
-        <v>27.08333333333333</v>
-      </c>
-      <c r="F356" t="n">
-        <v>-0.6944444444444434</v>
-      </c>
-      <c r="G356" t="n">
-        <v>0.6944444444444434</v>
-      </c>
-      <c r="H356" t="n">
-        <v>52.50289705150817</v>
-      </c>
-      <c r="I356" t="n">
-        <v>1.221245327087672e-15</v>
-      </c>
-      <c r="J356" t="n">
-        <v>1.221245327087672e-15</v>
-      </c>
-      <c r="K356" t="n">
-        <v>11.68984307873211</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="n">
-        <v>2</v>
-      </c>
-      <c r="B357" t="n">
-        <v>355</v>
-      </c>
-      <c r="C357" t="n">
-        <v>95</v>
-      </c>
-      <c r="D357" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E357" t="n">
-        <v>26.38888888888889</v>
-      </c>
-      <c r="F357" t="n">
-        <v>-0.6944444444444446</v>
-      </c>
-      <c r="G357" t="n">
-        <v>0.6944444444444446</v>
-      </c>
-      <c r="H357" t="n">
-        <v>53.19734149595261</v>
-      </c>
-      <c r="I357" t="n">
-        <v>-1.221245327087672e-15</v>
-      </c>
-      <c r="J357" t="n">
-        <v>1.221245327087672e-15</v>
-      </c>
-      <c r="K357" t="n">
-        <v>11.68984307873211</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="n">
-        <v>2</v>
-      </c>
-      <c r="B358" t="n">
-        <v>356</v>
-      </c>
-      <c r="C358" t="n">
-        <v>92.5</v>
-      </c>
-      <c r="D358" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E358" t="n">
-        <v>25.69444444444444</v>
-      </c>
-      <c r="F358" t="n">
-        <v>-0.6944444444444438</v>
-      </c>
-      <c r="G358" t="n">
-        <v>0.6944444444444438</v>
-      </c>
-      <c r="H358" t="n">
-        <v>53.89178594039706</v>
-      </c>
-      <c r="I358" t="n">
-        <v>8.881784197001252e-16</v>
-      </c>
-      <c r="J358" t="n">
-        <v>8.881784197001252e-16</v>
-      </c>
-      <c r="K358" t="n">
-        <v>11.68984307873211</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="n">
-        <v>2</v>
-      </c>
-      <c r="B359" t="n">
-        <v>357</v>
-      </c>
-      <c r="C359" t="n">
-        <v>90</v>
-      </c>
-      <c r="D359" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E359" t="n">
-        <v>25</v>
-      </c>
-      <c r="F359" t="n">
-        <v>-0.694444444444445</v>
-      </c>
-      <c r="G359" t="n">
-        <v>0.694444444444445</v>
-      </c>
-      <c r="H359" t="n">
-        <v>54.5862303848415</v>
-      </c>
-      <c r="I359" t="n">
-        <v>-1.221245327087672e-15</v>
-      </c>
-      <c r="J359" t="n">
-        <v>1.221245327087672e-15</v>
-      </c>
-      <c r="K359" t="n">
-        <v>11.68984307873212</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="n">
-        <v>2</v>
-      </c>
-      <c r="B360" t="n">
-        <v>358</v>
-      </c>
-      <c r="C360" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="D360" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E360" t="n">
-        <v>24.30555555555555</v>
-      </c>
-      <c r="F360" t="n">
-        <v>-0.6944444444444441</v>
-      </c>
-      <c r="G360" t="n">
-        <v>0.6944444444444441</v>
-      </c>
-      <c r="H360" t="n">
-        <v>55.28067482928594</v>
-      </c>
-      <c r="I360" t="n">
-        <v>8.881784197001252e-16</v>
-      </c>
-      <c r="J360" t="n">
-        <v>8.881784197001252e-16</v>
-      </c>
-      <c r="K360" t="n">
-        <v>11.68984307873212</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="n">
-        <v>2</v>
-      </c>
-      <c r="B361" t="n">
-        <v>359</v>
-      </c>
-      <c r="C361" t="n">
-        <v>85</v>
-      </c>
-      <c r="D361" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E361" t="n">
-        <v>23.61111111111111</v>
-      </c>
-      <c r="F361" t="n">
-        <v>-0.6944444444444429</v>
-      </c>
-      <c r="G361" t="n">
-        <v>0.6944444444444429</v>
-      </c>
-      <c r="H361" t="n">
-        <v>55.97511927373039</v>
-      </c>
-      <c r="I361" t="n">
-        <v>1.221245327087672e-15</v>
-      </c>
-      <c r="J361" t="n">
-        <v>1.221245327087672e-15</v>
-      </c>
-      <c r="K361" t="n">
-        <v>11.68984307873212</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="n">
-        <v>2</v>
-      </c>
-      <c r="B362" t="n">
-        <v>360</v>
-      </c>
-      <c r="C362" t="n">
-        <v>82.5</v>
-      </c>
-      <c r="D362" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E362" t="n">
-        <v>22.91666666666667</v>
-      </c>
-      <c r="F362" t="n">
-        <v>-0.6655092592592586</v>
-      </c>
-      <c r="G362" t="n">
-        <v>0.6655092592592586</v>
-      </c>
-      <c r="H362" t="n">
-        <v>56.64062853298964</v>
-      </c>
-      <c r="I362" t="n">
-        <v>0.02893518518518423</v>
-      </c>
-      <c r="J362" t="n">
-        <v>0.02893518518518423</v>
-      </c>
-      <c r="K362" t="n">
-        <v>11.7187782639173</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="n">
-        <v>2</v>
-      </c>
-      <c r="B363" t="n">
-        <v>361</v>
-      </c>
-      <c r="C363" t="n">
-        <v>80</v>
-      </c>
-      <c r="D363" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E363" t="n">
-        <v>22.22222222222222</v>
-      </c>
-      <c r="F363" t="n">
-        <v>-0.8680555555555575</v>
-      </c>
-      <c r="G363" t="n">
-        <v>0.8680555555555575</v>
-      </c>
-      <c r="H363" t="n">
-        <v>57.5086840885452</v>
-      </c>
-      <c r="I363" t="n">
-        <v>-0.2025462962962988</v>
-      </c>
-      <c r="J363" t="n">
-        <v>0.2025462962962988</v>
-      </c>
-      <c r="K363" t="n">
-        <v>11.9213245602136</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="n">
-        <v>2</v>
-      </c>
-      <c r="B364" t="n">
-        <v>362</v>
-      </c>
-      <c r="C364" t="n">
-        <v>76.25</v>
-      </c>
-      <c r="D364" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E364" t="n">
-        <v>21.18055555555555</v>
-      </c>
-      <c r="F364" t="n">
-        <v>-1.070601851851851</v>
-      </c>
-      <c r="G364" t="n">
-        <v>1.070601851851851</v>
-      </c>
-      <c r="H364" t="n">
-        <v>58.57928594039706</v>
-      </c>
-      <c r="I364" t="n">
-        <v>-0.2025462962962939</v>
-      </c>
-      <c r="J364" t="n">
-        <v>0.2025462962962939</v>
-      </c>
-      <c r="K364" t="n">
-        <v>12.1238708565099</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="n">
-        <v>2</v>
-      </c>
-      <c r="B365" t="n">
-        <v>363</v>
-      </c>
-      <c r="C365" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="D365" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E365" t="n">
-        <v>20.13888888888889</v>
-      </c>
-      <c r="F365" t="n">
-        <v>-1.041666666666665</v>
-      </c>
-      <c r="G365" t="n">
-        <v>1.041666666666665</v>
-      </c>
-      <c r="H365" t="n">
-        <v>59.62095260706372</v>
-      </c>
-      <c r="I365" t="n">
-        <v>0.02893518518518645</v>
-      </c>
-      <c r="J365" t="n">
-        <v>0.02893518518518645</v>
-      </c>
-      <c r="K365" t="n">
-        <v>12.15280604169508</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="n">
-        <v>2</v>
-      </c>
-      <c r="B366" t="n">
-        <v>364</v>
-      </c>
-      <c r="C366" t="n">
-        <v>68.75</v>
-      </c>
-      <c r="D366" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E366" t="n">
-        <v>19.09722222222222</v>
-      </c>
-      <c r="F366" t="n">
-        <v>-1.041666666666668</v>
-      </c>
-      <c r="G366" t="n">
-        <v>1.041666666666668</v>
-      </c>
-      <c r="H366" t="n">
-        <v>60.66261927373039</v>
-      </c>
-      <c r="I366" t="n">
-        <v>-3.108624468950438e-15</v>
-      </c>
-      <c r="J366" t="n">
-        <v>3.108624468950438e-15</v>
-      </c>
-      <c r="K366" t="n">
-        <v>12.15280604169509</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="n">
-        <v>2</v>
-      </c>
-      <c r="B367" t="n">
-        <v>365</v>
-      </c>
-      <c r="C367" t="n">
-        <v>65</v>
-      </c>
-      <c r="D367" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E367" t="n">
-        <v>18.05555555555555</v>
-      </c>
-      <c r="F367" t="n">
-        <v>-1.041666666666666</v>
-      </c>
-      <c r="G367" t="n">
-        <v>1.041666666666666</v>
-      </c>
-      <c r="H367" t="n">
-        <v>61.70428594039706</v>
-      </c>
-      <c r="I367" t="n">
-        <v>1.77635683940025e-15</v>
-      </c>
-      <c r="J367" t="n">
-        <v>1.77635683940025e-15</v>
-      </c>
-      <c r="K367" t="n">
-        <v>12.15280604169509</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="n">
-        <v>2</v>
-      </c>
-      <c r="B368" t="n">
-        <v>366</v>
-      </c>
-      <c r="C368" t="n">
-        <v>61.25</v>
-      </c>
-      <c r="D368" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E368" t="n">
-        <v>17.01388888888889</v>
-      </c>
-      <c r="F368" t="n">
-        <v>-1.041666666666666</v>
-      </c>
-      <c r="G368" t="n">
-        <v>1.041666666666666</v>
-      </c>
-      <c r="H368" t="n">
-        <v>62.74595260706372</v>
-      </c>
-      <c r="I368" t="n">
-        <v>2.220446049250313e-16</v>
-      </c>
-      <c r="J368" t="n">
-        <v>2.220446049250313e-16</v>
-      </c>
-      <c r="K368" t="n">
-        <v>12.15280604169509</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="n">
-        <v>2</v>
-      </c>
-      <c r="B369" t="n">
-        <v>367</v>
-      </c>
-      <c r="C369" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="D369" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E369" t="n">
-        <v>15.97222222222222</v>
-      </c>
-      <c r="F369" t="n">
-        <v>-1.041666666666667</v>
-      </c>
-      <c r="G369" t="n">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="H369" t="n">
-        <v>63.78761927373039</v>
-      </c>
-      <c r="I369" t="n">
-        <v>-8.881784197001252e-16</v>
-      </c>
-      <c r="J369" t="n">
-        <v>8.881784197001252e-16</v>
-      </c>
-      <c r="K369" t="n">
-        <v>12.15280604169509</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="n">
-        <v>2</v>
-      </c>
-      <c r="B370" t="n">
-        <v>368</v>
-      </c>
-      <c r="C370" t="n">
-        <v>53.75</v>
-      </c>
-      <c r="D370" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E370" t="n">
-        <v>14.93055555555556</v>
-      </c>
-      <c r="F370" t="n">
-        <v>-1.012731481481481</v>
-      </c>
-      <c r="G370" t="n">
-        <v>1.012731481481481</v>
-      </c>
-      <c r="H370" t="n">
-        <v>64.80035075521187</v>
-      </c>
-      <c r="I370" t="n">
-        <v>0.02893518518518623</v>
-      </c>
-      <c r="J370" t="n">
-        <v>0.02893518518518623</v>
-      </c>
-      <c r="K370" t="n">
-        <v>12.18174122688028</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="n">
-        <v>2</v>
-      </c>
-      <c r="B371" t="n">
-        <v>369</v>
-      </c>
-      <c r="C371" t="n">
-        <v>50</v>
-      </c>
-      <c r="D371" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E371" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="F371" t="n">
-        <v>-1.215277777777778</v>
-      </c>
-      <c r="G371" t="n">
-        <v>1.215277777777778</v>
-      </c>
-      <c r="H371" t="n">
-        <v>66.01562853298964</v>
-      </c>
-      <c r="I371" t="n">
-        <v>-0.2025462962962972</v>
-      </c>
-      <c r="J371" t="n">
-        <v>0.2025462962962972</v>
-      </c>
-      <c r="K371" t="n">
-        <v>12.38428752317657</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="n">
-        <v>2</v>
-      </c>
-      <c r="B372" t="n">
-        <v>370</v>
-      </c>
-      <c r="C372" t="n">
-        <v>45</v>
-      </c>
-      <c r="D372" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E372" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F372" t="n">
-        <v>-1.417824074074075</v>
-      </c>
-      <c r="G372" t="n">
-        <v>1.417824074074075</v>
-      </c>
-      <c r="H372" t="n">
-        <v>67.43345260706371</v>
-      </c>
-      <c r="I372" t="n">
-        <v>-0.2025462962962972</v>
-      </c>
-      <c r="J372" t="n">
-        <v>0.2025462962962972</v>
-      </c>
-      <c r="K372" t="n">
-        <v>12.58683381947287</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="n">
-        <v>2</v>
-      </c>
-      <c r="B373" t="n">
-        <v>371</v>
-      </c>
-      <c r="C373" t="n">
-        <v>40</v>
-      </c>
-      <c r="D373" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E373" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="F373" t="n">
-        <v>-1.388888888888889</v>
-      </c>
-      <c r="G373" t="n">
-        <v>1.388888888888889</v>
-      </c>
-      <c r="H373" t="n">
-        <v>68.8223414959526</v>
-      </c>
-      <c r="I373" t="n">
-        <v>0.02893518518518601</v>
-      </c>
-      <c r="J373" t="n">
-        <v>0.02893518518518601</v>
-      </c>
-      <c r="K373" t="n">
-        <v>12.61576900465806</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="n">
-        <v>2</v>
-      </c>
-      <c r="B374" t="n">
-        <v>372</v>
-      </c>
-      <c r="C374" t="n">
-        <v>35</v>
-      </c>
-      <c r="D374" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E374" t="n">
-        <v>9.722222222222221</v>
-      </c>
-      <c r="F374" t="n">
-        <v>-1.388888888888888</v>
-      </c>
-      <c r="G374" t="n">
-        <v>1.388888888888888</v>
-      </c>
-      <c r="H374" t="n">
-        <v>70.21123038484149</v>
-      </c>
-      <c r="I374" t="n">
-        <v>8.881784197001252e-16</v>
-      </c>
-      <c r="J374" t="n">
-        <v>8.881784197001252e-16</v>
-      </c>
-      <c r="K374" t="n">
-        <v>12.61576900465806</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="n">
-        <v>2</v>
-      </c>
-      <c r="B375" t="n">
-        <v>373</v>
-      </c>
-      <c r="C375" t="n">
-        <v>30</v>
-      </c>
-      <c r="D375" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E375" t="n">
-        <v>8.333333333333334</v>
-      </c>
-      <c r="F375" t="n">
-        <v>-1.388888888888888</v>
-      </c>
-      <c r="G375" t="n">
-        <v>1.388888888888888</v>
-      </c>
-      <c r="H375" t="n">
-        <v>71.60011927373037</v>
-      </c>
-      <c r="I375" t="n">
-        <v>-2.220446049250313e-16</v>
-      </c>
-      <c r="J375" t="n">
-        <v>2.220446049250313e-16</v>
-      </c>
-      <c r="K375" t="n">
-        <v>12.61576900465806</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="n">
-        <v>2</v>
-      </c>
-      <c r="B376" t="n">
-        <v>374</v>
-      </c>
-      <c r="C376" t="n">
-        <v>25</v>
-      </c>
-      <c r="D376" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E376" t="n">
-        <v>6.944444444444445</v>
-      </c>
-      <c r="F376" t="n">
-        <v>-1.388888888888889</v>
-      </c>
-      <c r="G376" t="n">
-        <v>1.388888888888889</v>
-      </c>
-      <c r="H376" t="n">
-        <v>72.98900816261926</v>
-      </c>
-      <c r="I376" t="n">
-        <v>-8.881784197001252e-16</v>
-      </c>
-      <c r="J376" t="n">
-        <v>8.881784197001252e-16</v>
-      </c>
-      <c r="K376" t="n">
-        <v>12.61576900465806</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="n">
-        <v>2</v>
-      </c>
-      <c r="B377" t="n">
-        <v>375</v>
-      </c>
-      <c r="C377" t="n">
-        <v>20</v>
-      </c>
-      <c r="D377" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E377" t="n">
-        <v>5.555555555555555</v>
-      </c>
-      <c r="F377" t="n">
-        <v>-1.388888888888889</v>
-      </c>
-      <c r="G377" t="n">
-        <v>1.388888888888889</v>
-      </c>
-      <c r="H377" t="n">
-        <v>74.37789705150814</v>
-      </c>
-      <c r="I377" t="n">
-        <v>6.661338147750939e-16</v>
-      </c>
-      <c r="J377" t="n">
-        <v>6.661338147750939e-16</v>
-      </c>
-      <c r="K377" t="n">
-        <v>12.61576900465806</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="n">
-        <v>2</v>
-      </c>
-      <c r="B378" t="n">
-        <v>376</v>
-      </c>
-      <c r="C378" t="n">
-        <v>15</v>
-      </c>
-      <c r="D378" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E378" t="n">
-        <v>4.166666666666667</v>
-      </c>
-      <c r="F378" t="n">
-        <v>-1.388888888888889</v>
-      </c>
-      <c r="G378" t="n">
-        <v>1.388888888888889</v>
-      </c>
-      <c r="H378" t="n">
-        <v>75.76678594039703</v>
-      </c>
-      <c r="I378" t="n">
-        <v>0</v>
-      </c>
-      <c r="J378" t="n">
-        <v>0</v>
-      </c>
-      <c r="K378" t="n">
-        <v>12.61576900465806</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="n">
-        <v>2</v>
-      </c>
-      <c r="B379" t="n">
-        <v>377</v>
-      </c>
-      <c r="C379" t="n">
-        <v>10</v>
-      </c>
-      <c r="D379" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E379" t="n">
-        <v>2.777777777777778</v>
-      </c>
-      <c r="F379" t="n">
-        <v>-1.388888888888889</v>
-      </c>
-      <c r="G379" t="n">
-        <v>1.388888888888889</v>
-      </c>
-      <c r="H379" t="n">
-        <v>77.15567482928591</v>
-      </c>
-      <c r="I379" t="n">
-        <v>-6.661338147750939e-16</v>
-      </c>
-      <c r="J379" t="n">
-        <v>6.661338147750939e-16</v>
-      </c>
-      <c r="K379" t="n">
-        <v>12.61576900465806</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="n">
-        <v>2</v>
-      </c>
-      <c r="B380" t="n">
-        <v>378</v>
-      </c>
-      <c r="C380" t="n">
-        <v>5</v>
-      </c>
-      <c r="D380" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E380" t="n">
-        <v>1.388888888888889</v>
-      </c>
-      <c r="F380" t="n">
-        <v>-1.50462962962963</v>
-      </c>
-      <c r="G380" t="n">
-        <v>1.50462962962963</v>
-      </c>
-      <c r="H380" t="n">
-        <v>78.66030445891555</v>
-      </c>
-      <c r="I380" t="n">
-        <v>-0.1157407407407403</v>
-      </c>
-      <c r="J380" t="n">
-        <v>0.1157407407407403</v>
-      </c>
-      <c r="K380" t="n">
-        <v>12.7315097453988</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="n">
-        <v>2</v>
-      </c>
-      <c r="B381" t="n">
-        <v>379</v>
-      </c>
-      <c r="C381" t="n">
-        <v>0</v>
-      </c>
-      <c r="D381" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E381" t="n">
-        <v>0</v>
-      </c>
-      <c r="F381" t="n">
-        <v>-0.6944444444444443</v>
-      </c>
-      <c r="G381" t="n">
-        <v>0.6944444444444443</v>
-      </c>
-      <c r="H381" t="n">
-        <v>79.35474890335999</v>
-      </c>
-      <c r="I381" t="n">
-        <v>0.8101851851851852</v>
-      </c>
-      <c r="J381" t="n">
-        <v>0.8101851851851852</v>
-      </c>
-      <c r="K381" t="n">
-        <v>13.54169493058398</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="n">
-        <v>2</v>
-      </c>
-      <c r="B382" t="n">
-        <v>380</v>
-      </c>
-      <c r="C382" t="n">
-        <v>0</v>
-      </c>
-      <c r="D382" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E382" t="n">
-        <v>0</v>
-      </c>
-      <c r="F382" t="n">
-        <v>0.1157407407407407</v>
-      </c>
-      <c r="G382" t="n">
-        <v>0.1157407407407407</v>
-      </c>
-      <c r="H382" t="n">
-        <v>79.47048964410074</v>
-      </c>
-      <c r="I382" t="n">
-        <v>0.810185185185185</v>
-      </c>
-      <c r="J382" t="n">
-        <v>0.810185185185185</v>
-      </c>
-      <c r="K382" t="n">
-        <v>14.35188011576917</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="n">
-        <v>2</v>
-      </c>
-      <c r="B383" t="n">
-        <v>381</v>
-      </c>
-      <c r="C383" t="n">
-        <v>0</v>
-      </c>
-      <c r="D383" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E383" t="n">
-        <v>0</v>
-      </c>
-      <c r="F383" t="n">
-        <v>0</v>
-      </c>
-      <c r="G383" t="n">
-        <v>0</v>
-      </c>
-      <c r="H383" t="n">
-        <v>79.47048964410074</v>
-      </c>
-      <c r="I383" t="n">
-        <v>-0.1157407407407407</v>
-      </c>
-      <c r="J383" t="n">
-        <v>0.1157407407407407</v>
-      </c>
-      <c r="K383" t="n">
-        <v>14.46762085650991</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="n">
-        <v>2</v>
-      </c>
-      <c r="B384" t="n">
-        <v>382</v>
-      </c>
-      <c r="C384" t="n">
-        <v>0</v>
-      </c>
-      <c r="D384" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E384" t="n">
-        <v>0</v>
-      </c>
-      <c r="F384" t="n">
-        <v>0</v>
-      </c>
-      <c r="G384" t="n">
-        <v>0</v>
-      </c>
-      <c r="H384" t="n">
-        <v>79.47048964410074</v>
-      </c>
-      <c r="I384" t="n">
-        <v>0</v>
-      </c>
-      <c r="J384" t="n">
-        <v>0</v>
-      </c>
-      <c r="K384" t="n">
-        <v>14.46762085650991</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="n">
-        <v>2</v>
-      </c>
-      <c r="B385" t="n">
-        <v>383</v>
-      </c>
-      <c r="C385" t="n">
-        <v>0</v>
-      </c>
-      <c r="D385" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E385" t="n">
-        <v>0</v>
-      </c>
-      <c r="F385" t="n">
-        <v>0</v>
-      </c>
-      <c r="G385" t="n">
-        <v>0</v>
-      </c>
-      <c r="H385" t="n">
-        <v>79.47048964410074</v>
-      </c>
-      <c r="I385" t="n">
-        <v>0</v>
-      </c>
-      <c r="J385" t="n">
-        <v>0</v>
-      </c>
-      <c r="K385" t="n">
-        <v>14.46762085650991</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="n">
-        <v>2</v>
-      </c>
-      <c r="B386" t="n">
-        <v>384</v>
-      </c>
-      <c r="C386" t="n">
-        <v>0</v>
-      </c>
-      <c r="D386" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E386" t="n">
-        <v>0</v>
-      </c>
-      <c r="F386" t="n">
-        <v>0</v>
-      </c>
-      <c r="G386" t="n">
-        <v>0</v>
-      </c>
-      <c r="H386" t="n">
-        <v>79.47048964410074</v>
-      </c>
-      <c r="I386" t="n">
-        <v>0</v>
-      </c>
-      <c r="J386" t="n">
-        <v>0</v>
-      </c>
-      <c r="K386" t="n">
-        <v>14.46762085650991</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="n">
-        <v>2</v>
-      </c>
-      <c r="B387" t="n">
-        <v>385</v>
-      </c>
-      <c r="C387" t="n">
-        <v>0</v>
-      </c>
-      <c r="D387" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E387" t="n">
-        <v>0</v>
-      </c>
-      <c r="F387" t="n">
-        <v>0</v>
-      </c>
-      <c r="G387" t="n">
-        <v>0</v>
-      </c>
-      <c r="H387" t="n">
-        <v>79.47048964410074</v>
-      </c>
-      <c r="I387" t="n">
-        <v>0</v>
-      </c>
-      <c r="J387" t="n">
-        <v>0</v>
-      </c>
-      <c r="K387" t="n">
-        <v>14.46762085650991</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="n">
-        <v>2</v>
-      </c>
-      <c r="B388" t="n">
-        <v>386</v>
-      </c>
-      <c r="C388" t="n">
-        <v>0</v>
-      </c>
-      <c r="D388" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E388" t="n">
-        <v>0</v>
-      </c>
-      <c r="F388" t="n">
-        <v>0</v>
-      </c>
-      <c r="G388" t="n">
-        <v>0</v>
-      </c>
-      <c r="H388" t="n">
-        <v>79.47048964410074</v>
-      </c>
-      <c r="I388" t="n">
-        <v>0</v>
-      </c>
-      <c r="J388" t="n">
-        <v>0</v>
-      </c>
-      <c r="K388" t="n">
-        <v>14.46762085650991</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="n">
-        <v>2</v>
-      </c>
-      <c r="B389" t="n">
-        <v>387</v>
-      </c>
-      <c r="C389" t="n">
-        <v>0</v>
-      </c>
-      <c r="D389" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E389" t="n">
-        <v>0</v>
-      </c>
-      <c r="F389" t="n">
-        <v>0</v>
-      </c>
-      <c r="G389" t="n">
-        <v>0</v>
-      </c>
-      <c r="H389" t="n">
-        <v>79.47048964410074</v>
-      </c>
-      <c r="I389" t="n">
-        <v>0</v>
-      </c>
-      <c r="J389" t="n">
-        <v>0</v>
-      </c>
-      <c r="K389" t="n">
-        <v>14.46762085650991</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="n">
-        <v>2</v>
-      </c>
-      <c r="B390" t="n">
-        <v>388</v>
-      </c>
-      <c r="C390" t="n">
-        <v>0</v>
-      </c>
-      <c r="D390" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E390" t="n">
-        <v>0</v>
-      </c>
-      <c r="F390" t="n">
-        <v>0</v>
-      </c>
-      <c r="G390" t="n">
-        <v>0</v>
-      </c>
-      <c r="H390" t="n">
-        <v>79.47048964410074</v>
-      </c>
-      <c r="I390" t="n">
-        <v>0</v>
-      </c>
-      <c r="J390" t="n">
-        <v>0</v>
-      </c>
-      <c r="K390" t="n">
-        <v>14.46762085650991</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="n">
-        <v>2</v>
-      </c>
-      <c r="B391" t="n">
-        <v>389</v>
-      </c>
-      <c r="C391" t="n">
-        <v>0</v>
-      </c>
-      <c r="D391" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E391" t="n">
-        <v>0</v>
-      </c>
-      <c r="F391" t="n">
-        <v>0</v>
-      </c>
-      <c r="G391" t="n">
-        <v>0</v>
-      </c>
-      <c r="H391" t="n">
-        <v>79.47048964410074</v>
-      </c>
-      <c r="I391" t="n">
-        <v>0</v>
-      </c>
-      <c r="J391" t="n">
-        <v>0</v>
-      </c>
-      <c r="K391" t="n">
-        <v>14.46762085650991</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="n">
-        <v>2</v>
-      </c>
-      <c r="B392" t="n">
-        <v>390</v>
-      </c>
-      <c r="C392" t="n">
-        <v>0</v>
-      </c>
-      <c r="D392" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E392" t="n">
-        <v>0</v>
-      </c>
-      <c r="F392" t="n">
-        <v>0</v>
-      </c>
-      <c r="G392" t="n">
-        <v>0</v>
-      </c>
-      <c r="H392" t="n">
-        <v>79.47048964410074</v>
-      </c>
-      <c r="I392" t="n">
-        <v>0</v>
-      </c>
-      <c r="J392" t="n">
-        <v>0</v>
-      </c>
-      <c r="K392" t="n">
-        <v>14.46762085650991</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="n">
-        <v>2</v>
-      </c>
-      <c r="B393" t="n">
-        <v>391</v>
-      </c>
-      <c r="C393" t="n">
-        <v>0</v>
-      </c>
-      <c r="D393" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E393" t="n">
-        <v>0</v>
-      </c>
-      <c r="F393" t="n">
-        <v>0</v>
-      </c>
-      <c r="G393" t="n">
-        <v>0</v>
-      </c>
-      <c r="H393" t="n">
-        <v>79.47048964410074</v>
-      </c>
-      <c r="I393" t="n">
-        <v>0</v>
-      </c>
-      <c r="J393" t="n">
-        <v>0</v>
-      </c>
-      <c r="K393" t="n">
-        <v>14.46762085650991</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="n">
-        <v>2</v>
-      </c>
-      <c r="B394" t="n">
-        <v>392</v>
-      </c>
-      <c r="C394" t="n">
-        <v>0</v>
-      </c>
-      <c r="D394" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E394" t="n">
-        <v>0</v>
-      </c>
-      <c r="F394" t="n">
-        <v>0</v>
-      </c>
-      <c r="G394" t="n">
-        <v>0</v>
-      </c>
-      <c r="H394" t="n">
-        <v>79.47048964410074</v>
-      </c>
-      <c r="I394" t="n">
-        <v>0</v>
-      </c>
-      <c r="J394" t="n">
-        <v>0</v>
-      </c>
-      <c r="K394" t="n">
-        <v>14.46762085650991</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="n">
-        <v>2</v>
-      </c>
-      <c r="B395" t="n">
-        <v>393</v>
-      </c>
-      <c r="C395" t="n">
-        <v>0</v>
-      </c>
-      <c r="D395" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E395" t="n">
-        <v>0</v>
-      </c>
-      <c r="F395" t="n">
-        <v>0</v>
-      </c>
-      <c r="G395" t="n">
-        <v>0</v>
-      </c>
-      <c r="H395" t="n">
-        <v>79.47048964410074</v>
-      </c>
-      <c r="I395" t="n">
-        <v>0</v>
-      </c>
-      <c r="J395" t="n">
-        <v>0</v>
-      </c>
-      <c r="K395" t="n">
-        <v>14.46762085650991</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="n">
-        <v>2</v>
-      </c>
-      <c r="B396" t="n">
-        <v>394</v>
-      </c>
-      <c r="C396" t="n">
-        <v>0</v>
-      </c>
-      <c r="D396" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E396" t="n">
-        <v>0</v>
-      </c>
-      <c r="F396" t="n">
-        <v>0</v>
-      </c>
-      <c r="G396" t="n">
-        <v>0</v>
-      </c>
-      <c r="H396" t="n">
-        <v>79.47048964410074</v>
-      </c>
-      <c r="I396" t="n">
-        <v>0</v>
-      </c>
-      <c r="J396" t="n">
-        <v>0</v>
-      </c>
-      <c r="K396" t="n">
-        <v>14.46762085650991</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="n">
-        <v>2</v>
-      </c>
-      <c r="B397" t="n">
-        <v>395</v>
-      </c>
-      <c r="C397" t="n">
-        <v>0</v>
-      </c>
-      <c r="D397" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E397" t="n">
-        <v>0</v>
-      </c>
-      <c r="F397" t="n">
-        <v>0</v>
-      </c>
-      <c r="G397" t="n">
-        <v>0</v>
-      </c>
-      <c r="H397" t="n">
-        <v>79.47048964410074</v>
-      </c>
-      <c r="I397" t="n">
-        <v>0</v>
-      </c>
-      <c r="J397" t="n">
-        <v>0</v>
-      </c>
-      <c r="K397" t="n">
-        <v>14.46762085650991</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="n">
-        <v>2</v>
-      </c>
-      <c r="B398" t="n">
-        <v>396</v>
-      </c>
-      <c r="C398" t="n">
-        <v>0</v>
-      </c>
-      <c r="D398" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E398" t="n">
-        <v>0</v>
-      </c>
-      <c r="F398" t="n">
-        <v>0</v>
-      </c>
-      <c r="G398" t="n">
-        <v>0</v>
-      </c>
-      <c r="H398" t="n">
-        <v>79.47048964410074</v>
-      </c>
-      <c r="I398" t="n">
-        <v>0</v>
-      </c>
-      <c r="J398" t="n">
-        <v>0</v>
-      </c>
-      <c r="K398" t="n">
-        <v>14.46762085650991</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="n">
-        <v>2</v>
-      </c>
-      <c r="B399" t="n">
-        <v>397</v>
-      </c>
-      <c r="C399" t="n">
-        <v>0</v>
-      </c>
-      <c r="D399" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E399" t="n">
-        <v>0</v>
-      </c>
-      <c r="F399" t="n">
-        <v>0</v>
-      </c>
-      <c r="G399" t="n">
-        <v>0</v>
-      </c>
-      <c r="H399" t="n">
-        <v>79.47048964410074</v>
-      </c>
-      <c r="I399" t="n">
-        <v>0</v>
-      </c>
-      <c r="J399" t="n">
-        <v>0</v>
-      </c>
-      <c r="K399" t="n">
-        <v>14.46762085650991</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="n">
-        <v>2</v>
-      </c>
-      <c r="B400" t="n">
-        <v>398</v>
-      </c>
-      <c r="C400" t="n">
-        <v>0</v>
-      </c>
-      <c r="D400" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E400" t="n">
-        <v>0</v>
-      </c>
-      <c r="F400" t="n">
-        <v>0</v>
-      </c>
-      <c r="G400" t="n">
-        <v>0</v>
-      </c>
-      <c r="H400" t="n">
-        <v>79.47048964410074</v>
-      </c>
-      <c r="I400" t="n">
-        <v>0</v>
-      </c>
-      <c r="J400" t="n">
-        <v>0</v>
-      </c>
-      <c r="K400" t="n">
-        <v>14.46762085650991</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="n">
-        <v>2</v>
-      </c>
-      <c r="B401" t="n">
-        <v>399</v>
-      </c>
-      <c r="C401" t="n">
-        <v>0</v>
-      </c>
-      <c r="D401" t="inlineStr">
-        <is>
-          <t>Motorway</t>
-        </is>
-      </c>
-      <c r="E401" t="n">
-        <v>0</v>
-      </c>
-      <c r="F401" t="n">
-        <v>0</v>
-      </c>
-      <c r="G401" t="n">
-        <v>0</v>
-      </c>
-      <c r="H401" t="n">
-        <v>79.47048964410074</v>
-      </c>
-      <c r="I401" t="n">
-        <v>0</v>
-      </c>
-      <c r="J401" t="n">
-        <v>0</v>
-      </c>
-      <c r="K401" t="n">
-        <v>14.46762085650991</v>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="n">
+        <v>5.979861111111086</v>
       </c>
     </row>
   </sheetData>
